--- a/Code/Results/Cases/Case_1_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.252416970761696</v>
+        <v>7.773964471275979</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.488924958571261</v>
+        <v>3.191376847968155</v>
       </c>
       <c r="E2">
-        <v>6.823595297761277</v>
+        <v>11.85124328904101</v>
       </c>
       <c r="F2">
-        <v>20.66287737465525</v>
+        <v>17.72866151351736</v>
       </c>
       <c r="G2">
-        <v>29.45324911345771</v>
+        <v>19.57760070707343</v>
       </c>
       <c r="H2">
-        <v>8.171891593405119</v>
+        <v>10.73842801354404</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>24.64162389735766</v>
+        <v>15.85493192387453</v>
       </c>
       <c r="N2">
-        <v>16.06394937994337</v>
+        <v>17.51857541418742</v>
       </c>
       <c r="O2">
-        <v>15.30692776030316</v>
+        <v>15.22314265709413</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.89690226461673</v>
+        <v>7.699799800734958</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.379447584281753</v>
+        <v>3.176492358786915</v>
       </c>
       <c r="E3">
-        <v>6.919181500931555</v>
+        <v>11.98720309686907</v>
       </c>
       <c r="F3">
-        <v>19.38701020331698</v>
+        <v>17.41093159309263</v>
       </c>
       <c r="G3">
-        <v>27.37907509804137</v>
+        <v>18.84099613348573</v>
       </c>
       <c r="H3">
-        <v>7.871422068800167</v>
+        <v>10.71732049147139</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23.09340618402254</v>
+        <v>15.21398275592134</v>
       </c>
       <c r="N3">
-        <v>15.6813875039346</v>
+        <v>17.43140374411847</v>
       </c>
       <c r="O3">
-        <v>14.4561896865122</v>
+        <v>15.0646897611005</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.671820902471202</v>
+        <v>7.65569071955251</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.317483819526628</v>
+        <v>3.167747109919436</v>
       </c>
       <c r="E4">
-        <v>7.006250366743512</v>
+        <v>12.07665026904341</v>
       </c>
       <c r="F4">
-        <v>18.57580796501746</v>
+        <v>17.21898374929986</v>
       </c>
       <c r="G4">
-        <v>26.04393967590739</v>
+        <v>18.38104970430241</v>
       </c>
       <c r="H4">
-        <v>7.687633699949351</v>
+        <v>10.70688276961715</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>22.08978178563967</v>
+        <v>14.80740209072803</v>
       </c>
       <c r="N4">
-        <v>15.44587040697728</v>
+        <v>17.38013548785282</v>
       </c>
       <c r="O4">
-        <v>13.92079025590226</v>
+        <v>14.97138250067528</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.578521695866289</v>
+        <v>7.63809568132707</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.292273388331433</v>
+        <v>3.164285063018225</v>
       </c>
       <c r="E5">
-        <v>7.04818163760678</v>
+        <v>12.11458876781704</v>
       </c>
       <c r="F5">
-        <v>18.23850944511398</v>
+        <v>17.14167214614263</v>
       </c>
       <c r="G5">
-        <v>25.48436899912115</v>
+        <v>18.19204099147834</v>
       </c>
       <c r="H5">
-        <v>7.613014594385652</v>
+        <v>10.70326648453872</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.66747337370784</v>
+        <v>14.63866976506064</v>
       </c>
       <c r="N5">
-        <v>15.34986924461084</v>
+        <v>17.35982785094253</v>
       </c>
       <c r="O5">
-        <v>13.69958173800051</v>
+        <v>14.93440446794764</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562938454240746</v>
+        <v>7.635197564504585</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.288069850278786</v>
+        <v>3.163716411632798</v>
       </c>
       <c r="E6">
-        <v>7.055514147307496</v>
+        <v>12.12097794577148</v>
       </c>
       <c r="F6">
-        <v>18.18210423998258</v>
+        <v>17.12889296341008</v>
       </c>
       <c r="G6">
-        <v>25.39051777417746</v>
+        <v>18.1605718907537</v>
       </c>
       <c r="H6">
-        <v>7.600643893688062</v>
+        <v>10.70270455978296</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.596545379578</v>
+        <v>14.61047512102326</v>
       </c>
       <c r="N6">
-        <v>15.33393066870747</v>
+        <v>17.35649158801028</v>
       </c>
       <c r="O6">
-        <v>13.66267564694508</v>
+        <v>14.92832866719418</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.67056883182083</v>
+        <v>7.655451862316033</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.317145012729517</v>
+        <v>3.167700004265245</v>
       </c>
       <c r="E7">
-        <v>7.006790645157711</v>
+        <v>12.07715591203066</v>
       </c>
       <c r="F7">
-        <v>18.57128586999053</v>
+        <v>17.21793726181962</v>
       </c>
       <c r="G7">
-        <v>26.03645581147314</v>
+        <v>18.37850656358646</v>
       </c>
       <c r="H7">
-        <v>7.686626104867317</v>
+        <v>10.70683141588761</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>22.08414030542585</v>
+        <v>14.80513852134316</v>
       </c>
       <c r="N7">
-        <v>15.44457563079355</v>
+        <v>17.37985922241547</v>
       </c>
       <c r="O7">
-        <v>13.91781885471712</v>
+        <v>14.97087951306476</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.131318366638187</v>
+        <v>7.74810860835746</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.451823947856941</v>
+        <v>3.186164558427168</v>
       </c>
       <c r="E8">
-        <v>6.850247971433797</v>
+        <v>11.89687607134288</v>
       </c>
       <c r="F8">
-        <v>20.2288697071333</v>
+        <v>17.61852831001991</v>
       </c>
       <c r="G8">
-        <v>28.75083765907366</v>
+        <v>19.32541203265054</v>
       </c>
       <c r="H8">
-        <v>8.06820150652327</v>
+        <v>10.73062853309208</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>24.11879796645454</v>
+        <v>15.63676782551957</v>
       </c>
       <c r="N8">
-        <v>15.93224782883755</v>
+        <v>17.4880611371734</v>
       </c>
       <c r="O8">
-        <v>15.01643493444954</v>
+        <v>15.16770829606011</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.97614073733542</v>
+        <v>7.940205916979797</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.70728812242918</v>
+        <v>3.225376855139542</v>
       </c>
       <c r="E9">
-        <v>6.798754116578676</v>
+        <v>11.59127660455648</v>
       </c>
       <c r="F9">
-        <v>23.47985313882899</v>
+        <v>18.42375292565395</v>
       </c>
       <c r="G9">
-        <v>33.58768789969054</v>
+        <v>21.1076223322103</v>
       </c>
       <c r="H9">
-        <v>8.8181205627364</v>
+        <v>10.79715561059646</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>27.6890253584073</v>
+        <v>17.15540559663145</v>
       </c>
       <c r="N9">
-        <v>16.87820766699457</v>
+        <v>17.71734869796255</v>
       </c>
       <c r="O9">
-        <v>17.34727846503587</v>
+        <v>15.58326505363177</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.590289663534751</v>
+        <v>8.086393089064362</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.878859509091734</v>
+        <v>3.255847262261014</v>
       </c>
       <c r="E10">
-        <v>6.954653585818078</v>
+        <v>11.39680323723299</v>
       </c>
       <c r="F10">
-        <v>25.73811916466804</v>
+        <v>19.02040094467878</v>
       </c>
       <c r="G10">
-        <v>36.85134799737357</v>
+        <v>22.35521164358337</v>
       </c>
       <c r="H10">
-        <v>9.36563910245517</v>
+        <v>10.8578990124939</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>30.05888084050378</v>
+        <v>18.19278308360818</v>
       </c>
       <c r="N10">
-        <v>17.56013329690797</v>
+        <v>17.89513672870953</v>
       </c>
       <c r="O10">
-        <v>19.04291773806648</v>
+        <v>15.90376129555673</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.894830111248243</v>
+        <v>8.153716013097535</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.9532815902916</v>
+        <v>3.270031725518334</v>
       </c>
       <c r="E11">
-        <v>7.074015083435454</v>
+        <v>11.31504879103543</v>
       </c>
       <c r="F11">
-        <v>26.72254830356091</v>
+        <v>19.29150953180298</v>
       </c>
       <c r="G11">
-        <v>38.27512031803334</v>
+        <v>22.906521464844</v>
       </c>
       <c r="H11">
-        <v>9.613269343296658</v>
+        <v>10.88804575315348</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>31.08292605716328</v>
+        <v>18.6460360234555</v>
       </c>
       <c r="N11">
-        <v>17.86625247777556</v>
+        <v>17.97780011831567</v>
       </c>
       <c r="O11">
-        <v>19.7816287253146</v>
+        <v>16.05223190284211</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.007663548689703</v>
+        <v>8.179304197732563</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.980933438992452</v>
+        <v>3.275446179299991</v>
       </c>
       <c r="E12">
-        <v>7.12653574546487</v>
+        <v>11.2850726332545</v>
       </c>
       <c r="F12">
-        <v>27.08928450760111</v>
+        <v>19.394013982968</v>
       </c>
       <c r="G12">
-        <v>38.80571034286627</v>
+        <v>23.11275695449427</v>
       </c>
       <c r="H12">
-        <v>9.706791451048462</v>
+        <v>10.89981680292526</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>31.46302979255088</v>
+        <v>18.81487572973274</v>
       </c>
       <c r="N12">
-        <v>17.98148916322226</v>
+        <v>18.00933847288446</v>
       </c>
       <c r="O12">
-        <v>20.05678402382901</v>
+        <v>16.10878509219128</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.983473205313205</v>
+        <v>8.173789499065528</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.975001818986463</v>
+        <v>3.274278217247225</v>
       </c>
       <c r="E13">
-        <v>7.114894705251726</v>
+        <v>11.29148455752783</v>
       </c>
       <c r="F13">
-        <v>27.01056810403576</v>
+        <v>19.37194662551424</v>
       </c>
       <c r="G13">
-        <v>38.69181570438057</v>
+        <v>23.06845605457066</v>
       </c>
       <c r="H13">
-        <v>9.68666146625724</v>
+        <v>10.89726600994522</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>31.38150768943864</v>
+        <v>18.77863913972036</v>
       </c>
       <c r="N13">
-        <v>17.95670272833332</v>
+        <v>18.00253599250267</v>
       </c>
       <c r="O13">
-        <v>19.99772608070794</v>
+        <v>16.09659150907</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.904162747846849</v>
+        <v>8.155819410618916</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.955567193876926</v>
+        <v>3.27047633160772</v>
       </c>
       <c r="E14">
-        <v>7.07818772673752</v>
+        <v>11.31256284304768</v>
       </c>
       <c r="F14">
-        <v>26.75284033216034</v>
+        <v>19.29994644607143</v>
       </c>
       <c r="G14">
-        <v>38.31894266406744</v>
+        <v>22.92354041684207</v>
       </c>
       <c r="H14">
-        <v>9.620968677528086</v>
+        <v>10.8890070857585</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>31.11435079108877</v>
+        <v>18.65998322816193</v>
       </c>
       <c r="N14">
-        <v>17.87574729310142</v>
+        <v>17.98039020101016</v>
       </c>
       <c r="O14">
-        <v>19.80435697673977</v>
+        <v>16.05687825208295</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.855259279272413</v>
+        <v>8.144823812594774</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.94359365100579</v>
+        <v>3.268153078908956</v>
       </c>
       <c r="E15">
-        <v>7.056665220381797</v>
+        <v>11.32560237218237</v>
       </c>
       <c r="F15">
-        <v>26.59419113239753</v>
+        <v>19.25582031984175</v>
       </c>
       <c r="G15">
-        <v>38.08943837632639</v>
+        <v>22.83443994568714</v>
       </c>
       <c r="H15">
-        <v>9.580696314555546</v>
+        <v>10.88399430547807</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>30.94971213510481</v>
+        <v>18.58693564207881</v>
       </c>
       <c r="N15">
-        <v>17.82606799125716</v>
+        <v>17.96685529662133</v>
       </c>
       <c r="O15">
-        <v>19.68532017521514</v>
+        <v>16.03259418245858</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.570037638628804</v>
+        <v>8.082007882536793</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.873922093935201</v>
+        <v>3.254926492084018</v>
       </c>
       <c r="E16">
-        <v>6.947861335510162</v>
+        <v>11.40228261193562</v>
       </c>
       <c r="F16">
-        <v>25.67293150851276</v>
+        <v>19.00266727731055</v>
       </c>
       <c r="G16">
-        <v>36.75709190926727</v>
+        <v>22.31883803823119</v>
       </c>
       <c r="H16">
-        <v>9.349422948838003</v>
+        <v>10.85597890956121</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>29.99087732350135</v>
+        <v>18.16277634705056</v>
       </c>
       <c r="N16">
-        <v>17.54003697050753</v>
+        <v>17.88976861156639</v>
       </c>
       <c r="O16">
-        <v>18.99399399839816</v>
+        <v>15.89410760148898</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.390712742849738</v>
+        <v>8.04366588957298</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.830245268442801</v>
+        <v>3.246892829387218</v>
       </c>
       <c r="E17">
-        <v>6.893817289700967</v>
+        <v>11.45105472270605</v>
       </c>
       <c r="F17">
-        <v>25.09686757966834</v>
+        <v>18.84720417456817</v>
       </c>
       <c r="G17">
-        <v>35.92427583863299</v>
+        <v>21.99822648462984</v>
       </c>
       <c r="H17">
-        <v>9.207140964676022</v>
+        <v>10.83943194413986</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>29.38888670666214</v>
+        <v>17.8977031554553</v>
       </c>
       <c r="N17">
-        <v>17.36344727066127</v>
+        <v>17.84292090807557</v>
       </c>
       <c r="O17">
-        <v>18.56160578551071</v>
+        <v>15.80979730484905</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.304490977828397</v>
+        <v>8.021691340642361</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.804782562353914</v>
+        <v>3.24230271872824</v>
       </c>
       <c r="E18">
-        <v>6.867279386183189</v>
+        <v>11.47973788637209</v>
       </c>
       <c r="F18">
-        <v>24.76148766512863</v>
+        <v>18.75776329860993</v>
       </c>
       <c r="G18">
-        <v>35.43951818629234</v>
+        <v>21.81230230413272</v>
       </c>
       <c r="H18">
-        <v>9.125170498625081</v>
+        <v>10.83015164067591</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>29.03754749939552</v>
+        <v>17.74348984153923</v>
       </c>
       <c r="N18">
-        <v>17.26149751893364</v>
+        <v>17.81614482327965</v>
       </c>
       <c r="O18">
-        <v>18.3098273544124</v>
+        <v>15.76155931531226</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.275143297732795</v>
+        <v>8.014265385647711</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.79610306134607</v>
+        <v>3.240753950720825</v>
       </c>
       <c r="E19">
-        <v>6.859061927884742</v>
+        <v>11.48955732836687</v>
       </c>
       <c r="F19">
-        <v>24.64723606376915</v>
+        <v>18.72747982346402</v>
       </c>
       <c r="G19">
-        <v>35.27439561129273</v>
+        <v>21.74909757720819</v>
       </c>
       <c r="H19">
-        <v>9.097395281094672</v>
+        <v>10.82705039350984</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>28.91771341077601</v>
+        <v>17.69097903859151</v>
       </c>
       <c r="N19">
-        <v>17.22691687268216</v>
+        <v>17.80710865629823</v>
       </c>
       <c r="O19">
-        <v>18.22404713468208</v>
+        <v>15.74527221549625</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.409876288919616</v>
+        <v>8.047739481811854</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.834930096452165</v>
+        <v>3.247744879766326</v>
       </c>
       <c r="E20">
-        <v>6.899096776283765</v>
+        <v>11.44579744680711</v>
       </c>
       <c r="F20">
-        <v>25.15860822253837</v>
+        <v>18.86375666854734</v>
       </c>
       <c r="G20">
-        <v>36.01352368587727</v>
+        <v>22.03251465863914</v>
       </c>
       <c r="H20">
-        <v>9.222301308753627</v>
+        <v>10.84116890536857</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>29.45349585527677</v>
+        <v>17.92610267601242</v>
       </c>
       <c r="N20">
-        <v>17.38228559763225</v>
+        <v>17.84789054024965</v>
       </c>
       <c r="O20">
-        <v>18.60795223113494</v>
+        <v>15.81874627353357</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.927525533109863</v>
+        <v>8.161095285811111</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.961290064160818</v>
+        <v>3.271591895004359</v>
       </c>
       <c r="E21">
-        <v>7.088768626144996</v>
+        <v>11.30634483476283</v>
       </c>
       <c r="F21">
-        <v>26.82870426862586</v>
+        <v>19.32109982890854</v>
       </c>
       <c r="G21">
-        <v>38.42869520131013</v>
+        <v>22.96617588402351</v>
       </c>
       <c r="H21">
-        <v>9.640271310218203</v>
+        <v>10.89142334756346</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>31.19302891874752</v>
+        <v>18.69491209589894</v>
       </c>
       <c r="N21">
-        <v>17.8995451474843</v>
+        <v>17.98688873662197</v>
       </c>
       <c r="O21">
-        <v>19.86127745419941</v>
+        <v>16.0685344572899</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.251339631320219</v>
+        <v>8.23571955417863</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.040780427026558</v>
+        <v>3.287426938629131</v>
       </c>
       <c r="E22">
-        <v>7.388560847620583</v>
+        <v>11.22093960223017</v>
       </c>
       <c r="F22">
-        <v>27.88503752761481</v>
+        <v>19.6190270049933</v>
       </c>
       <c r="G22">
-        <v>39.95735435863372</v>
+        <v>23.56153442521493</v>
       </c>
       <c r="H22">
-        <v>9.911970208486204</v>
+        <v>10.92633416953673</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>32.28519956041115</v>
+        <v>19.1810266684278</v>
       </c>
       <c r="N22">
-        <v>18.2335792947225</v>
+        <v>18.07909480813804</v>
       </c>
       <c r="O22">
-        <v>20.65377231702599</v>
+        <v>16.23368740963037</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.079833158337813</v>
+        <v>8.195849577746568</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.998640397007621</v>
+        <v>3.278953769584496</v>
       </c>
       <c r="E23">
-        <v>7.162505885495962</v>
+        <v>11.26599134719457</v>
       </c>
       <c r="F23">
-        <v>27.32442674621611</v>
+        <v>19.46014303364234</v>
       </c>
       <c r="G23">
-        <v>39.14596559297159</v>
+        <v>23.24519823821506</v>
       </c>
       <c r="H23">
-        <v>9.767104727255257</v>
+        <v>10.90751476631666</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>31.70634666364103</v>
+        <v>18.92310755743518</v>
       </c>
       <c r="N23">
-        <v>18.05569650267564</v>
+        <v>18.02976513782708</v>
       </c>
       <c r="O23">
-        <v>20.23319808854549</v>
+        <v>16.14538599881832</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.401169128227755</v>
+        <v>8.045897594739166</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.832813182423353</v>
+        <v>3.247359578624197</v>
       </c>
       <c r="E24">
-        <v>6.896695830650835</v>
+        <v>11.44817225823869</v>
       </c>
       <c r="F24">
-        <v>25.13070834718031</v>
+        <v>18.85627347365812</v>
       </c>
       <c r="G24">
-        <v>35.97319331437772</v>
+        <v>22.0170179443028</v>
       </c>
       <c r="H24">
-        <v>9.215447845323812</v>
+        <v>10.84038289962439</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>29.42430240818179</v>
+        <v>17.91326891029734</v>
       </c>
       <c r="N24">
-        <v>17.37377010949363</v>
+        <v>17.84564327799179</v>
       </c>
       <c r="O24">
-        <v>18.58700895619415</v>
+        <v>15.81469971445676</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.75447732803651</v>
+        <v>7.887256811518137</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.640957472170187</v>
+        <v>3.214464507961031</v>
       </c>
       <c r="E25">
-        <v>6.781173674013568</v>
+        <v>11.66873468790714</v>
       </c>
       <c r="F25">
-        <v>22.60953359952018</v>
+        <v>18.20453811465739</v>
       </c>
       <c r="G25">
-        <v>32.33069698027429</v>
+        <v>20.63528238096971</v>
       </c>
       <c r="H25">
-        <v>8.61557366163537</v>
+        <v>10.777054644512</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>26.76790628362123</v>
+        <v>16.7577040543563</v>
       </c>
       <c r="N25">
-        <v>16.62413702242845</v>
+        <v>17.65360046530465</v>
       </c>
       <c r="O25">
-        <v>16.69318809074298</v>
+        <v>15.46796786507774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.773964471275979</v>
+        <v>7.252416970761725</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.191376847968155</v>
+        <v>2.488924958571304</v>
       </c>
       <c r="E2">
-        <v>11.85124328904101</v>
+        <v>6.823595297761168</v>
       </c>
       <c r="F2">
-        <v>17.72866151351736</v>
+        <v>20.66287737465528</v>
       </c>
       <c r="G2">
-        <v>19.57760070707343</v>
+        <v>29.45324911345765</v>
       </c>
       <c r="H2">
-        <v>10.73842801354404</v>
+        <v>8.17189159340518</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.85493192387453</v>
+        <v>24.64162389735764</v>
       </c>
       <c r="N2">
-        <v>17.51857541418742</v>
+        <v>16.06394937994337</v>
       </c>
       <c r="O2">
-        <v>15.22314265709413</v>
+        <v>15.30692776030319</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.699799800734958</v>
+        <v>6.896902264616761</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.176492358786915</v>
+        <v>2.379447584281662</v>
       </c>
       <c r="E3">
-        <v>11.98720309686907</v>
+        <v>6.919181500931616</v>
       </c>
       <c r="F3">
-        <v>17.41093159309263</v>
+        <v>19.38701020331696</v>
       </c>
       <c r="G3">
-        <v>18.84099613348573</v>
+        <v>27.37907509804137</v>
       </c>
       <c r="H3">
-        <v>10.71732049147139</v>
+        <v>7.871422068800167</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.21398275592134</v>
+        <v>23.09340618402252</v>
       </c>
       <c r="N3">
-        <v>17.43140374411847</v>
+        <v>15.68138750393457</v>
       </c>
       <c r="O3">
-        <v>15.0646897611005</v>
+        <v>14.45618968651218</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.65569071955251</v>
+        <v>6.671820902471234</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.167747109919436</v>
+        <v>2.317483819526628</v>
       </c>
       <c r="E4">
-        <v>12.07665026904341</v>
+        <v>7.006250366743523</v>
       </c>
       <c r="F4">
-        <v>17.21898374929986</v>
+        <v>18.57580796501746</v>
       </c>
       <c r="G4">
-        <v>18.38104970430241</v>
+        <v>26.04393967590736</v>
       </c>
       <c r="H4">
-        <v>10.70688276961715</v>
+        <v>7.68763369994928</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.80740209072803</v>
+        <v>22.08978178563967</v>
       </c>
       <c r="N4">
-        <v>17.38013548785282</v>
+        <v>15.44587040697726</v>
       </c>
       <c r="O4">
-        <v>14.97138250067528</v>
+        <v>13.92079025590225</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.63809568132707</v>
+        <v>6.578521695866257</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.164285063018225</v>
+        <v>2.29227338833142</v>
       </c>
       <c r="E5">
-        <v>12.11458876781704</v>
+        <v>7.048181637606726</v>
       </c>
       <c r="F5">
-        <v>17.14167214614263</v>
+        <v>18.23850944511398</v>
       </c>
       <c r="G5">
-        <v>18.19204099147834</v>
+        <v>25.48436899912116</v>
       </c>
       <c r="H5">
-        <v>10.70326648453872</v>
+        <v>7.613014594385711</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.63866976506064</v>
+        <v>21.66747337370785</v>
       </c>
       <c r="N5">
-        <v>17.35982785094253</v>
+        <v>15.34986924461085</v>
       </c>
       <c r="O5">
-        <v>14.93440446794764</v>
+        <v>13.69958173800052</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.635197564504585</v>
+        <v>6.562938454240745</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.163716411632798</v>
+        <v>2.288069850278834</v>
       </c>
       <c r="E6">
-        <v>12.12097794577148</v>
+        <v>7.05551414730749</v>
       </c>
       <c r="F6">
-        <v>17.12889296341008</v>
+        <v>18.18210423998261</v>
       </c>
       <c r="G6">
-        <v>18.1605718907537</v>
+        <v>25.3905177741775</v>
       </c>
       <c r="H6">
-        <v>10.70270455978296</v>
+        <v>7.600643893688049</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.61047512102326</v>
+        <v>21.596545379578</v>
       </c>
       <c r="N6">
-        <v>17.35649158801028</v>
+        <v>15.33393066870748</v>
       </c>
       <c r="O6">
-        <v>14.92832866719418</v>
+        <v>13.66267564694508</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.655451862316033</v>
+        <v>6.67056883182078</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.167700004265245</v>
+        <v>2.317145012729497</v>
       </c>
       <c r="E7">
-        <v>12.07715591203066</v>
+        <v>7.006790645157647</v>
       </c>
       <c r="F7">
-        <v>17.21793726181962</v>
+        <v>18.57128586999056</v>
       </c>
       <c r="G7">
-        <v>18.37850656358646</v>
+        <v>26.03645581147323</v>
       </c>
       <c r="H7">
-        <v>10.70683141588761</v>
+        <v>7.686626104867325</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.80513852134316</v>
+        <v>22.08414030542589</v>
       </c>
       <c r="N7">
-        <v>17.37985922241547</v>
+        <v>15.44457563079354</v>
       </c>
       <c r="O7">
-        <v>14.97087951306476</v>
+        <v>13.91781885471713</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.74810860835746</v>
+        <v>7.131318366638144</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.186164558427168</v>
+        <v>2.451823947856902</v>
       </c>
       <c r="E8">
-        <v>11.89687607134288</v>
+        <v>6.850247971433779</v>
       </c>
       <c r="F8">
-        <v>17.61852831001991</v>
+        <v>20.22886970713331</v>
       </c>
       <c r="G8">
-        <v>19.32541203265054</v>
+        <v>28.75083765907365</v>
       </c>
       <c r="H8">
-        <v>10.73062853309208</v>
+        <v>8.068201506523284</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.63676782551957</v>
+        <v>24.11879796645454</v>
       </c>
       <c r="N8">
-        <v>17.4880611371734</v>
+        <v>15.93224782883758</v>
       </c>
       <c r="O8">
-        <v>15.16770829606011</v>
+        <v>15.01643493444955</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.940205916979797</v>
+        <v>7.976140737335405</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.225376855139542</v>
+        <v>2.707288122429139</v>
       </c>
       <c r="E9">
-        <v>11.59127660455648</v>
+        <v>6.798754116578701</v>
       </c>
       <c r="F9">
-        <v>18.42375292565395</v>
+        <v>23.47985313882895</v>
       </c>
       <c r="G9">
-        <v>21.1076223322103</v>
+        <v>33.58768789969048</v>
       </c>
       <c r="H9">
-        <v>10.79715561059646</v>
+        <v>8.8181205627364</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.15540559663145</v>
+        <v>27.68902535840726</v>
       </c>
       <c r="N9">
-        <v>17.71734869796255</v>
+        <v>16.87820766699453</v>
       </c>
       <c r="O9">
-        <v>15.58326505363177</v>
+        <v>17.34727846503584</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.086393089064362</v>
+        <v>8.590289663534731</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.255847262261014</v>
+        <v>2.878859509091735</v>
       </c>
       <c r="E10">
-        <v>11.39680323723299</v>
+        <v>6.95465358581806</v>
       </c>
       <c r="F10">
-        <v>19.02040094467878</v>
+        <v>25.73811916466806</v>
       </c>
       <c r="G10">
-        <v>22.35521164358337</v>
+        <v>36.85134799737361</v>
       </c>
       <c r="H10">
-        <v>10.8578990124939</v>
+        <v>9.365639102455155</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.19278308360818</v>
+        <v>30.05888084050378</v>
       </c>
       <c r="N10">
-        <v>17.89513672870953</v>
+        <v>17.56013329690796</v>
       </c>
       <c r="O10">
-        <v>15.90376129555673</v>
+        <v>19.04291773806649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.153716013097535</v>
+        <v>8.894830111248226</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.270031725518334</v>
+        <v>2.953281590291631</v>
       </c>
       <c r="E11">
-        <v>11.31504879103543</v>
+        <v>7.074015083435468</v>
       </c>
       <c r="F11">
-        <v>19.29150953180298</v>
+        <v>26.72254830356092</v>
       </c>
       <c r="G11">
-        <v>22.906521464844</v>
+        <v>38.27512031803327</v>
       </c>
       <c r="H11">
-        <v>10.88804575315348</v>
+        <v>9.613269343296658</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.6460360234555</v>
+        <v>31.08292605716326</v>
       </c>
       <c r="N11">
-        <v>17.97780011831567</v>
+        <v>17.86625247777555</v>
       </c>
       <c r="O11">
-        <v>16.05223190284211</v>
+        <v>19.7816287253146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.179304197732563</v>
+        <v>9.007663548689687</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.275446179299991</v>
+        <v>2.98093343899242</v>
       </c>
       <c r="E12">
-        <v>11.2850726332545</v>
+        <v>7.126535745464861</v>
       </c>
       <c r="F12">
-        <v>19.394013982968</v>
+        <v>27.08928450760106</v>
       </c>
       <c r="G12">
-        <v>23.11275695449427</v>
+        <v>38.80571034286609</v>
       </c>
       <c r="H12">
-        <v>10.89981680292526</v>
+        <v>9.706791451048469</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.81487572973274</v>
+        <v>31.46302979255086</v>
       </c>
       <c r="N12">
-        <v>18.00933847288446</v>
+        <v>17.98148916322226</v>
       </c>
       <c r="O12">
-        <v>16.10878509219128</v>
+        <v>20.05678402382894</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.173789499065528</v>
+        <v>8.983473205313206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.274278217247225</v>
+        <v>2.97500181898641</v>
       </c>
       <c r="E13">
-        <v>11.29148455752783</v>
+        <v>7.114894705251705</v>
       </c>
       <c r="F13">
-        <v>19.37194662551424</v>
+        <v>27.01056810403575</v>
       </c>
       <c r="G13">
-        <v>23.06845605457066</v>
+        <v>38.69181570438055</v>
       </c>
       <c r="H13">
-        <v>10.89726600994522</v>
+        <v>9.686661466257217</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.77863913972036</v>
+        <v>31.38150768943864</v>
       </c>
       <c r="N13">
-        <v>18.00253599250267</v>
+        <v>17.95670272833334</v>
       </c>
       <c r="O13">
-        <v>16.09659150907</v>
+        <v>19.99772608070794</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.155819410618916</v>
+        <v>8.904162747846787</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.27047633160772</v>
+        <v>2.955567193876867</v>
       </c>
       <c r="E14">
-        <v>11.31256284304768</v>
+        <v>7.078187726737503</v>
       </c>
       <c r="F14">
-        <v>19.29994644607143</v>
+        <v>26.75284033216038</v>
       </c>
       <c r="G14">
-        <v>22.92354041684207</v>
+        <v>38.3189426640675</v>
       </c>
       <c r="H14">
-        <v>10.8890070857585</v>
+        <v>9.620968677528095</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.65998322816193</v>
+        <v>31.11435079108881</v>
       </c>
       <c r="N14">
-        <v>17.98039020101016</v>
+        <v>17.8757472931014</v>
       </c>
       <c r="O14">
-        <v>16.05687825208295</v>
+        <v>19.80435697673979</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.144823812594774</v>
+        <v>8.855259279272456</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.268153078908956</v>
+        <v>2.943593651005807</v>
       </c>
       <c r="E15">
-        <v>11.32560237218237</v>
+        <v>7.05666522038179</v>
       </c>
       <c r="F15">
-        <v>19.25582031984175</v>
+        <v>26.59419113239753</v>
       </c>
       <c r="G15">
-        <v>22.83443994568714</v>
+        <v>38.08943837632641</v>
       </c>
       <c r="H15">
-        <v>10.88399430547807</v>
+        <v>9.580696314555528</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.58693564207881</v>
+        <v>30.94971213510483</v>
       </c>
       <c r="N15">
-        <v>17.96685529662133</v>
+        <v>17.82606799125718</v>
       </c>
       <c r="O15">
-        <v>16.03259418245858</v>
+        <v>19.68532017521514</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.082007882536793</v>
+        <v>8.570037638628788</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.254926492084018</v>
+        <v>2.873922093935234</v>
       </c>
       <c r="E16">
-        <v>11.40228261193562</v>
+        <v>6.94786133551017</v>
       </c>
       <c r="F16">
-        <v>19.00266727731055</v>
+        <v>25.67293150851278</v>
       </c>
       <c r="G16">
-        <v>22.31883803823119</v>
+        <v>36.75709190926737</v>
       </c>
       <c r="H16">
-        <v>10.85597890956121</v>
+        <v>9.349422948837995</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.16277634705056</v>
+        <v>29.99087732350138</v>
       </c>
       <c r="N16">
-        <v>17.88976861156639</v>
+        <v>17.54003697050754</v>
       </c>
       <c r="O16">
-        <v>15.89410760148898</v>
+        <v>18.99399399839818</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.04366588957298</v>
+        <v>8.390712742849715</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.246892829387218</v>
+        <v>2.830245268442808</v>
       </c>
       <c r="E17">
-        <v>11.45105472270605</v>
+        <v>6.893817289700961</v>
       </c>
       <c r="F17">
-        <v>18.84720417456817</v>
+        <v>25.09686757966834</v>
       </c>
       <c r="G17">
-        <v>21.99822648462984</v>
+        <v>35.92427583863299</v>
       </c>
       <c r="H17">
-        <v>10.83943194413986</v>
+        <v>9.207140964676015</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.8977031554553</v>
+        <v>29.38888670666214</v>
       </c>
       <c r="N17">
-        <v>17.84292090807557</v>
+        <v>17.36344727066128</v>
       </c>
       <c r="O17">
-        <v>15.80979730484905</v>
+        <v>18.5616057855107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.021691340642361</v>
+        <v>8.304490977828427</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.24230271872824</v>
+        <v>2.804782562353914</v>
       </c>
       <c r="E18">
-        <v>11.47973788637209</v>
+        <v>6.867279386183207</v>
       </c>
       <c r="F18">
-        <v>18.75776329860993</v>
+        <v>24.76148766512861</v>
       </c>
       <c r="G18">
-        <v>21.81230230413272</v>
+        <v>35.43951818629228</v>
       </c>
       <c r="H18">
-        <v>10.83015164067591</v>
+        <v>9.125170498625094</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.74348984153923</v>
+        <v>29.03754749939549</v>
       </c>
       <c r="N18">
-        <v>17.81614482327965</v>
+        <v>17.26149751893361</v>
       </c>
       <c r="O18">
-        <v>15.76155931531226</v>
+        <v>18.30982735441237</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.014265385647711</v>
+        <v>8.275143297732795</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.240753950720825</v>
+        <v>2.79610306134605</v>
       </c>
       <c r="E19">
-        <v>11.48955732836687</v>
+        <v>6.859061927884737</v>
       </c>
       <c r="F19">
-        <v>18.72747982346402</v>
+        <v>24.64723606376916</v>
       </c>
       <c r="G19">
-        <v>21.74909757720819</v>
+        <v>35.27439561129284</v>
       </c>
       <c r="H19">
-        <v>10.82705039350984</v>
+        <v>9.097395281094693</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.69097903859151</v>
+        <v>28.91771341077601</v>
       </c>
       <c r="N19">
-        <v>17.80710865629823</v>
+        <v>17.22691687268216</v>
       </c>
       <c r="O19">
-        <v>15.74527221549625</v>
+        <v>18.2240471346821</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.047739481811854</v>
+        <v>8.409876288919648</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.247744879766326</v>
+        <v>2.834930096452166</v>
       </c>
       <c r="E20">
-        <v>11.44579744680711</v>
+        <v>6.899096776283802</v>
       </c>
       <c r="F20">
-        <v>18.86375666854734</v>
+        <v>25.15860822253836</v>
       </c>
       <c r="G20">
-        <v>22.03251465863914</v>
+        <v>36.01352368587728</v>
       </c>
       <c r="H20">
-        <v>10.84116890536857</v>
+        <v>9.222301308753643</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.92610267601242</v>
+        <v>29.45349585527675</v>
       </c>
       <c r="N20">
-        <v>17.84789054024965</v>
+        <v>17.38228559763224</v>
       </c>
       <c r="O20">
-        <v>15.81874627353357</v>
+        <v>18.60795223113494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.161095285811111</v>
+        <v>8.927525533109806</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.271591895004359</v>
+        <v>2.961290064160857</v>
       </c>
       <c r="E21">
-        <v>11.30634483476283</v>
+        <v>7.088768626144988</v>
       </c>
       <c r="F21">
-        <v>19.32109982890854</v>
+        <v>26.82870426862586</v>
       </c>
       <c r="G21">
-        <v>22.96617588402351</v>
+        <v>38.42869520131013</v>
       </c>
       <c r="H21">
-        <v>10.89142334756346</v>
+        <v>9.640271310218203</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.69491209589894</v>
+        <v>31.19302891874748</v>
       </c>
       <c r="N21">
-        <v>17.98688873662197</v>
+        <v>17.89954514748429</v>
       </c>
       <c r="O21">
-        <v>16.0685344572899</v>
+        <v>19.86127745419939</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.23571955417863</v>
+        <v>9.251339631320203</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.287426938629131</v>
+        <v>3.040780427026604</v>
       </c>
       <c r="E22">
-        <v>11.22093960223017</v>
+        <v>7.38856084762059</v>
       </c>
       <c r="F22">
-        <v>19.6190270049933</v>
+        <v>27.88503752761486</v>
       </c>
       <c r="G22">
-        <v>23.56153442521493</v>
+        <v>39.95735435863376</v>
       </c>
       <c r="H22">
-        <v>10.92633416953673</v>
+        <v>9.911970208486188</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.1810266684278</v>
+        <v>32.28519956041119</v>
       </c>
       <c r="N22">
-        <v>18.07909480813804</v>
+        <v>18.23357929472252</v>
       </c>
       <c r="O22">
-        <v>16.23368740963037</v>
+        <v>20.65377231702601</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.195849577746568</v>
+        <v>9.079833158337854</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.278953769584496</v>
+        <v>2.998640397007576</v>
       </c>
       <c r="E23">
-        <v>11.26599134719457</v>
+        <v>7.162505885495915</v>
       </c>
       <c r="F23">
-        <v>19.46014303364234</v>
+        <v>27.32442674621606</v>
       </c>
       <c r="G23">
-        <v>23.24519823821506</v>
+        <v>39.14596559297144</v>
       </c>
       <c r="H23">
-        <v>10.90751476631666</v>
+        <v>9.767104727255271</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.92310755743518</v>
+        <v>31.70634666364103</v>
       </c>
       <c r="N23">
-        <v>18.02976513782708</v>
+        <v>18.05569650267564</v>
       </c>
       <c r="O23">
-        <v>16.14538599881832</v>
+        <v>20.23319808854545</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.045897594739166</v>
+        <v>8.401169128227723</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.247359578624197</v>
+        <v>2.832813182423433</v>
       </c>
       <c r="E24">
-        <v>11.44817225823869</v>
+        <v>6.896695830650852</v>
       </c>
       <c r="F24">
-        <v>18.85627347365812</v>
+        <v>25.13070834718031</v>
       </c>
       <c r="G24">
-        <v>22.0170179443028</v>
+        <v>35.97319331437768</v>
       </c>
       <c r="H24">
-        <v>10.84038289962439</v>
+        <v>9.215447845323805</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.91326891029734</v>
+        <v>29.42430240818181</v>
       </c>
       <c r="N24">
-        <v>17.84564327799179</v>
+        <v>17.37377010949368</v>
       </c>
       <c r="O24">
-        <v>15.81469971445676</v>
+        <v>18.58700895619412</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.887256811518137</v>
+        <v>7.754477328036484</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.214464507961031</v>
+        <v>2.640957472170187</v>
       </c>
       <c r="E25">
-        <v>11.66873468790714</v>
+        <v>6.781173674013538</v>
       </c>
       <c r="F25">
-        <v>18.20453811465739</v>
+        <v>22.60953359952018</v>
       </c>
       <c r="G25">
-        <v>20.63528238096971</v>
+        <v>32.33069698027427</v>
       </c>
       <c r="H25">
-        <v>10.777054644512</v>
+        <v>8.61557366163537</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.7577040543563</v>
+        <v>26.76790628362124</v>
       </c>
       <c r="N25">
-        <v>17.65360046530465</v>
+        <v>16.62413702242852</v>
       </c>
       <c r="O25">
-        <v>15.46796786507774</v>
+        <v>16.69318809074298</v>
       </c>
     </row>
   </sheetData>
